--- a/test/assets/excel/test-2.xlsx
+++ b/test/assets/excel/test-2.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">capital (en-US)</t>
   </si>
   <si>
-    <t xml:space="preserve">capital (en-UK)</t>
+    <t xml:space="preserve">capital (en-GB)</t>
   </si>
   <si>
     <t xml:space="preserve">capital (en-AU)</t>
@@ -58,6 +58,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -146,7 +147,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
